--- a/Data/Okanogan_EDT/Okanogan_ReachPriorityProtection033021.xlsx
+++ b/Data/Okanogan_EDT/Okanogan_ReachPriorityProtection033021.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\UCRTT\Prioritization\Step 2\Protection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\Documents\GitHub\Prioritization_Step2_Data_R_Project\Data\Okanogan_EDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{837A1E10-AFA9-4D93-A5E1-227CB8A785B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1E369C-F6CE-4003-9A14-6403BE934D10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A338EB5-7900-45D3-B195-B2FA8A0B26C8}"/>
+    <workbookView xWindow="2016" yWindow="1788" windowWidth="19968" windowHeight="10356" xr2:uid="{7A338EB5-7900-45D3-B195-B2FA8A0B26C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -675,23 +678,23 @@
     <t>Ninemile 16-5</t>
   </si>
   <si>
+    <t>Okanogan-Long Joe Creek</t>
+  </si>
+  <si>
+    <t>Okanogan 16-49</t>
+  </si>
+  <si>
+    <t>Okanogan 16-50</t>
+  </si>
+  <si>
     <t>Okanagan 16-48</t>
-  </si>
-  <si>
-    <t>Okanagan 16-49</t>
-  </si>
-  <si>
-    <t>Okanogan-Long Joe Creek</t>
-  </si>
-  <si>
-    <t>Okanagan 16-50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,13 +702,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -720,8 +737,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADE6E66-44AF-49EF-869C-86A98806FF35}">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,263 +1069,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1318,444 +1336,444 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
         <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1766,24 +1784,24 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1794,122 +1812,122 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -1920,10 +1938,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -1934,24 +1952,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1962,38 +1980,38 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -2004,10 +2022,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -2018,38 +2036,38 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -2060,44 +2078,44 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B74" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2105,27 +2123,27 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2133,13 +2151,13 @@
         <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,427 +2165,427 @@
         <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B101" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="B105" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -2578,178 +2596,178 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
       </c>
       <c r="D115">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="B120" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2760,38 +2778,38 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2802,10 +2820,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -2816,10 +2834,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2830,108 +2848,108 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
       </c>
       <c r="D129">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B133" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
       </c>
       <c r="D133">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -2942,10 +2960,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -2956,248 +2974,248 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
       </c>
       <c r="D143">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
       </c>
       <c r="D144">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
       <c r="D146">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
       </c>
       <c r="D147">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
       </c>
       <c r="D148">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B152" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
       </c>
       <c r="D153">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B154" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -3208,234 +3226,234 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B159" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
       </c>
       <c r="D159">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B160" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
       </c>
       <c r="D160">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="B161" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B163" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="B166" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="B167" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B168" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -3446,215 +3464,221 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B173" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B174" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B184" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
       </c>
       <c r="D185">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{41EAF15F-C2C6-44D5-AF97-BE746F9BAE5F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D186">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>